--- a/biology/Botanique/Courge/Courge.xlsx
+++ b/biology/Botanique/Courge/Courge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme courge, ou plus rarement cougourde, désigne plusieurs espèces de plantes de la famille des cucurbitacées. Elles sont généralement cultivées pour leurs fruits comestibles mais il arrive qu'elles le soient pour leurs graines oléagineuses. Le terme désigne également leurs fruits, qui ont la propriété de se conserver facilement à maturité et qui sont utilisés en cuisine comme un légume ou donnés aux animaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Acceptions du terme courge</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le terme « courge » n'a pas toujours un sens très précis dans le langage courant. On peut considérer trois niveaux d'acceptions :
 dans une acception large, « courge » désigne de nombreuses espèces de Cucurbitacées, ou plus spécifiquement leurs fruits particuliers qui sont des péponides, grosses baies à très nombreux pépins et à épiderme coriace ; il est souvent employé en concurrence avec d'autres termes plus ou moins synonymes : potiron, citrouille, giraumon, coloquinte, calebasse... comme l'illustre la liste suivante : liste des plantes appelées courges.
@@ -546,119 +560,269 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Description
-Les courges ont la particularité d'émettre des organes de soutien nommés « vrilles » qui leur permettent de s'accrocher aux éléments environnants pour soutenir leur croissance.
-Espèces
-Les courges, dénommées aussi potirons mais surtout citrouilles dans l'usage courant, appartiennent à plusieurs espèces botaniques appartenant au genre Cucurbita et dotées d'une étonnante variabilité génétique, qui se traduit, chez les fruits, par d'innombrables formes et couleurs et aussi une grande diversité de tailles.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les courges ont la particularité d'émettre des organes de soutien nommés « vrilles » qui leur permettent de s'accrocher aux éléments environnants pour soutenir leur croissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genre Cucurbita</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les courges, dénommées aussi potirons mais surtout citrouilles dans l'usage courant, appartiennent à plusieurs espèces botaniques appartenant au genre Cucurbita et dotées d'une étonnante variabilité génétique, qui se traduit, chez les fruits, par d'innombrables formes et couleurs et aussi une grande diversité de tailles.
 Sauf exceptions les espèces différentes ne s'hybrident pas entre elles et le plus souvent donnent des graines hautement stériles. Cependant, en culture, une certaine distance entre pepo et moschata est souvent recommandée bien qu'une hybridation naturelle fertile soit peu probable.
 Sur le plan botanique, on distingue principalement, parmi les courges les plus fréquemment cultivées en Europe, les espèces suivantes, que l'on peut distinguer, aux caractères du pédoncule lorsqu'on ne dispose que du fruit :
 Leur nombre chromosomique est 2n=2x=40
-Caractères distinctifs des principales espèces de courges cultivées
-La chayote ou christophine, cultivée dans les régions tropicales, notamment aux Antilles, appartient à une autre espèce de Cucurbitacée d'un genre différent : Sechium edule et présente la particularité de produire des tubercules.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genre Cucurbita</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères distinctifs des principales espèces de courges cultivées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La chayote ou christophine, cultivée dans les régions tropicales, notamment aux Antilles, appartient à une autre espèce de Cucurbitacée d'un genre différent : Sechium edule et présente la particularité de produire des tubercules.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On sème les courges au tout début du printemps après les derniers gels d'hiver (idéalement tester le sol avec un testeur de sol car le sol de culture des courges doit être riche, à 20 °C et à un pH d'environ 6,5). Dans les zones à gels tardifs, on sème en godets et on repique les plants en place après les saints de glace avec un espacement de 1 m en tous sens pour les variétés non coureuses. Les variétés coureuses sont quant à elles repiquées tous les 1,20 m avec 2 m entre les rangs.
 Semer chaque semaine jusqu'au 15 juillet pour avoir une production étalée de la mi-juin à la fin octobre.
 Pailler le sol autour des cucurbitacées pour conserver l'humidité dans le sol en limitant l'évaporation et offrir un « matelas » sec aux fruits poussant à même le sol.
-Pour mieux fructifier, les lianes des courges doivent être taillées environ 25 cm après le dernier fruit conservé[3]. Moins on garde de fruit, plus ils seront gros.
+Pour mieux fructifier, les lianes des courges doivent être taillées environ 25 cm après le dernier fruit conservé. Moins on garde de fruit, plus ils seront gros.
 Récoltez les courgettes environ 60 jours après le semis (donc avant maturité complète sauf si on souhaite récupérer des graines pour la saison suivante) et les courges d'hiver avant les premiers gels. Taillez la tige à 5–6 cm de la base du fruit.
 Les courges, appelées aussi courges d'hiver, comme beaucoup de cucurbitacées, se récoltent à maturité, en automne.
 Leur conservation est relativement facile et permet une commercialisation jusqu'au printemps. Il convient de les conserver dans un local frais et de les surveiller périodiquement. Elles sont sensibles aux chocs et doivent être manipulées avec précaution.
 Dans les étalages, l'une des plus courantes est la « courge musquée de Provence ». Vendue le plus souvent en tranches, on la reconnaît facilement à sa couleur caractéristique de terre cuite et à sa forme côtelée et dodue.
-Maladies et ravageurs
-Ne pas trop arroser le sol et surtout les feuilles pour éviter l’apparition d'oïdium (le goutte à goutte est plus adapté). Il est à noter que les feuilles de la courge musquée sont naturellement marbrées de blanc (qu'on pourrait prendre à tort pour de l'oïdium).
-La punaise des citrouilles (ou Corée marginée) peut attaquer les courges. On peut s'en protéger par compagnonnage botanique en plantant près des courges, au choix, un répulsif tel que la menthe, l'herbe à chat (Cataire), des Nasturtium ou des Tagetes (œillet d'Inde et rose d'Inde).
-Reproduction
-Les courges sont monoïques. Les fleurs femelles se reconnaissent à la petite courge (en fait, un ovule non encore fécondé) présente sous la fleur. Leur pistil doit être fécondé par le pollen d'une fleur mâle qui pousse en pointe érigée. Ce pollen, transporté par les insectes lorsqu'ils viennent butiner, se dépose sur le pistil qui est recouvert d'une substance un peu gluante qui permet au pollen de se fixer. Chaque grain de pollen germe et une minuscule (presque microscopique) radicelle se développe, descend le long du pistil, atteint l'ovaire de la fleur qui est alors fécondé. Chaque grain de pollen permet la formation d'une graine à l'intérieur de la courge pour assurer la reproduction de l'espèce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ne pas trop arroser le sol et surtout les feuilles pour éviter l’apparition d'oïdium (le goutte à goutte est plus adapté). Il est à noter que les feuilles de la courge musquée sont naturellement marbrées de blanc (qu'on pourrait prendre à tort pour de l'oïdium).
+La punaise des citrouilles (ou Corée marginée) peut attaquer les courges. On peut s'en protéger par compagnonnage botanique en plantant près des courges, au choix, un répulsif tel que la menthe, l'herbe à chat (Cataire), des Nasturtium ou des Tagetes (œillet d'Inde et rose d'Inde).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les courges sont monoïques. Les fleurs femelles se reconnaissent à la petite courge (en fait, un ovule non encore fécondé) présente sous la fleur. Leur pistil doit être fécondé par le pollen d'une fleur mâle qui pousse en pointe érigée. Ce pollen, transporté par les insectes lorsqu'ils viennent butiner, se dépose sur le pistil qui est recouvert d'une substance un peu gluante qui permet au pollen de se fixer. Chaque grain de pollen germe et une minuscule (presque microscopique) radicelle se développe, descend le long du pistil, atteint l'ovaire de la fleur qui est alors fécondé. Chaque grain de pollen permet la formation d'une graine à l'intérieur de la courge pour assurer la reproduction de l'espèce.
 Les fleurs des courges ont une durée de vie très brève. Elles s'ouvrent le matin vers 9 heures et se referment vers midi pour ne plus se rouvrir. Chaque fleur femelle dispose donc d'un laps de temps de seulement 3 heures pour être fécondée. En l'absence de fécondation, la fleur femelle avorte et le fruit naissant tombe avec la fleur.
-Les courges ont un hermaphrodisme successif. Les fleurs femelles apparaissent souvent après les mâles. Il vaut donc mieux étaler les semis afin de favoriser des périodes de croisement entre les différents plants. Les variétés de courges se croisent facilement, pourvu qu'elles appartiennent à la même espèce. Lorsque ces croisements impliquent certaines variétés décoratives, du type « fausses coloquintes » (appartenant à l'espèce Cucurbita pepo) ils peuvent produire des fruits éventuellement toxiques (perte de cheveux, douleurs abdominales, voire mort)[4],[5] ou pour le moins à chair amère.
+Les courges ont un hermaphrodisme successif. Les fleurs femelles apparaissent souvent après les mâles. Il vaut donc mieux étaler les semis afin de favoriser des périodes de croisement entre les différents plants. Les variétés de courges se croisent facilement, pourvu qu'elles appartiennent à la même espèce. Lorsque ces croisements impliquent certaines variétés décoratives, du type « fausses coloquintes » (appartenant à l'espèce Cucurbita pepo) ils peuvent produire des fruits éventuellement toxiques (perte de cheveux, douleurs abdominales, voire mort), ou pour le moins à chair amère.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, la France a récolté près de 140 000 tonnes de courges sur une surface de plus de 3 600 ha. Les principales régions productrices sont la Provence (40 % de ce volume) et l’Aquitaine (10 %)[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, la France a récolté près de 140 000 tonnes de courges sur une surface de plus de 3 600 ha. Les principales régions productrices sont la Provence (40 % de ce volume) et l’Aquitaine (10 %).
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Du point de vue de la saveur, on trouve principalement des arômes de fruits secs. Leur chair rappelle celle des châtaignes.
 Elles se consomment de toutes sortes de façons. De la soupe au gratin, en passant par les tartes, mais aussi comme des pâtes : la courge spaghetti dont la chair filamenteuse évoque les spaghettis.
@@ -670,31 +834,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Amérindiens d'Amérique du Nord, les courges sont considérées comme le fruit de la santé (askootaskwash) et constituent l'une des trois cultures, pratiquées traditionnellement, appelées les trois sœurs.
 En Islam, L’arbre que Dieu fit croître pour donner une nourriture et un remède à Jonas : 
@@ -706,62 +872,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « courge », dont la première attestation écrite date de 1256 sous la forme cohourde, dérive du latin cŭcŭrbĭta, qui a donné aussi en français le mot « gourde ». « Courge » (forme dialectale de l'Ouest) et « gourde » sont en fait des doublets lexicaux, qui se sont spécialisés tardivement[7],[8]. En effet les Anciens ne connaissaient pas nos courges, introduites en Europe après les voyages de Christophe Colomb en Amérique, mais ils connaissaient depuis très longtemps les gourdes (ou calebasses) du genre Lagenaria, qui sont citées sous le nom de cucurbita par Pline l'Ancien notamment et que l'on retrouve sous ce nom dans le capitulaire De Villis à l'époque de Charlemagne, probablement parce qu'ils les vidaient pour les remplir lors de leurs voyages, d'où l'utilisation moderne du mot. Jusqu'au XVIIIe siècle, en France, le terme « courge » a désigné les calebasses, et ce n'est que dans le courant du XIXe siècle qu'il s'est imposé pour désigner nos courges actuelles, c'est-à-dire les potirons et citrouilles, en même temps que se stabilisait la classification botanique.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « courge », dont la première attestation écrite date de 1256 sous la forme cohourde, dérive du latin cŭcŭrbĭta, qui a donné aussi en français le mot « gourde ». « Courge » (forme dialectale de l'Ouest) et « gourde » sont en fait des doublets lexicaux, qui se sont spécialisés tardivement,. En effet les Anciens ne connaissaient pas nos courges, introduites en Europe après les voyages de Christophe Colomb en Amérique, mais ils connaissaient depuis très longtemps les gourdes (ou calebasses) du genre Lagenaria, qui sont citées sous le nom de cucurbita par Pline l'Ancien notamment et que l'on retrouve sous ce nom dans le capitulaire De Villis à l'époque de Charlemagne, probablement parce qu'ils les vidaient pour les remplir lors de leurs voyages, d'où l'utilisation moderne du mot. Jusqu'au XVIIIe siècle, en France, le terme « courge » a désigné les calebasses, et ce n'est que dans le courant du XIXe siècle qu'il s'est imposé pour désigner nos courges actuelles, c'est-à-dire les potirons et citrouilles, en même temps que se stabilisait la classification botanique.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Courge</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Courge</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Courge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Langue française</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme courge sert de complément de nom pour l'araignée Araniella cucurbitina.
 Au sens populaire, courge peut être synonyme de « tête » et d'« imbécile ».
